--- a/config/excel/runeSuit.xlsx
+++ b/config/excel/runeSuit.xlsx
@@ -1,33 +1,28 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\go\src\github.com\east-eden\server\config\excel\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <bookViews>
-    <workbookView xWindow="0" yWindow="30" windowWidth="15960" windowHeight="18075"/>
+    <workbookView xWindow="0" yWindow="40" windowWidth="15960" windowHeight="18080"/>
   </bookViews>
   <sheets>
-    <sheet name="RuneSuitProto" sheetId="1" r:id="rId1"/>
+    <sheet name="RuneSuitProto" sheetId="1" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="17">
   <si>
-    <t>id</t>
+    <t>行列头两行不会被读取</t>
   </si>
   <si>
-    <t>2件套装属性ID</t>
+    <t>导出字段名</t>
   </si>
   <si>
-    <t>3件套装属性ID</t>
+    <t>Id</t>
+  </si>
+  <si>
+    <t>Suit2_AttID</t>
   </si>
   <si>
     <t>Suit3_AttID</t>
@@ -42,97 +37,66 @@
     <t>Suit6_AttID</t>
   </si>
   <si>
+    <t>导出字段描述</t>
+  </si>
+  <si>
+    <t>id</t>
+  </si>
+  <si>
+    <t>2件套装属性ID</t>
+  </si>
+  <si>
+    <t>3件套装属性ID</t>
+  </si>
+  <si>
+    <t>客户端导出字段类型</t>
+  </si>
+  <si>
+    <t>服务器导出字段类型</t>
+  </si>
+  <si>
     <t>int</t>
   </si>
   <si>
-    <t>行列头两行不会被读取</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Id</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>导出字段名</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>导出字段描述</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>导出字段类型</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
     <t>导出字段默认值</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>Suit2_AttID</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>default</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>-1</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>-1</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>-1</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="6">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="1">
+    <numFmt numFmtId="0" formatCode="General"/>
+  </numFmts>
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
-      <name val="宋体"/>
+      <name val="SimSun"/>
     </font>
     <font>
-      <b/>
+      <sz val="12"/>
+      <color indexed="8"/>
+      <name val="Helvetica Neue"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color indexed="8"/>
+      <name val="SimSun"/>
+    </font>
+    <font>
       <sz val="9"/>
       <color indexed="8"/>
       <name val="微软雅黑"/>
-      <family val="2"/>
-      <charset val="134"/>
     </font>
     <font>
+      <b val="1"/>
       <sz val="9"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color indexed="8"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color theme="1"/>
       <name val="微软雅黑"/>
-      <family val="2"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <name val="Helvetica Neue"/>
-      <family val="3"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="4">
@@ -155,7 +119,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="10">
+  <borders count="13">
     <border>
       <left/>
       <right/>
@@ -199,9 +163,7 @@
       <top style="thin">
         <color indexed="10"/>
       </top>
-      <bottom style="thin">
-        <color indexed="10"/>
-      </bottom>
+      <bottom/>
       <diagonal/>
     </border>
     <border>
@@ -235,10 +197,43 @@
       <left style="thin">
         <color indexed="10"/>
       </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="10"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="10"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="10"/>
+      </left>
       <right style="thin">
         <color indexed="10"/>
       </right>
       <top/>
+      <bottom style="thin">
+        <color indexed="10"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="10"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="10"/>
+      </top>
       <bottom style="thin">
         <color indexed="10"/>
       </bottom>
@@ -270,117 +265,95 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="17">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="1" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="1" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="1" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+  <cellXfs count="19">
+    <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="3" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="3" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="3" borderId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="8" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0"/>
   <colors>
     <indexedColors>
-      <rgbColor rgb="FF000000"/>
-      <rgbColor rgb="FFFFFFFF"/>
-      <rgbColor rgb="FFFF0000"/>
-      <rgbColor rgb="FF00FF00"/>
-      <rgbColor rgb="FF0000FF"/>
-      <rgbColor rgb="FFFFFF00"/>
-      <rgbColor rgb="FFFF00FF"/>
-      <rgbColor rgb="FF00FFFF"/>
-      <rgbColor rgb="FF000000"/>
-      <rgbColor rgb="FFFFFFFF"/>
-      <rgbColor rgb="FFAAAAAA"/>
-      <rgbColor rgb="FF92D050"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
+      <rgbColor rgb="ff000000"/>
+      <rgbColor rgb="ffffffff"/>
+      <rgbColor rgb="ffff0000"/>
+      <rgbColor rgb="ff00ff00"/>
+      <rgbColor rgb="ff0000ff"/>
+      <rgbColor rgb="ffffff00"/>
+      <rgbColor rgb="ffff00ff"/>
+      <rgbColor rgb="ff00ffff"/>
+      <rgbColor rgb="ff000000"/>
+      <rgbColor rgb="ffffffff"/>
+      <rgbColor rgb="ffaaaaaa"/>
+      <rgbColor rgb="ff92d050"/>
     </indexedColors>
   </colors>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Office 主题​​">
   <a:themeElements>
     <a:clrScheme name="Office 主题​​">
       <a:dk1>
@@ -506,7 +479,7 @@
       <a:effectStyleLst>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="38100" dist="23000" dir="5400000" rotWithShape="0">
+            <a:outerShdw sx="100000" sy="100000" kx="0" ky="0" algn="b" rotWithShape="0" blurRad="38100" dist="23000" dir="5400000">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -515,7 +488,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="38100" dist="23000" dir="5400000" rotWithShape="0">
+            <a:outerShdw sx="100000" sy="100000" kx="0" ky="0" algn="b" rotWithShape="0" blurRad="38100" dist="23000" dir="5400000">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -524,7 +497,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="38100" dist="23000" dir="5400000" rotWithShape="0">
+            <a:outerShdw sx="100000" sy="100000" kx="0" ky="0" algn="b" rotWithShape="0" blurRad="38100" dist="23000" dir="5400000">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -598,7 +571,7 @@
           <a:round/>
         </a:ln>
         <a:effectLst>
-          <a:outerShdw blurRad="38100" dist="23000" dir="5400000" rotWithShape="0">
+          <a:outerShdw sx="100000" sy="100000" kx="0" ky="0" algn="b" rotWithShape="0" blurRad="38100" dist="23000" dir="5400000">
             <a:srgbClr val="000000">
               <a:alpha val="35000"/>
             </a:srgbClr>
@@ -606,7 +579,7 @@
         </a:effectLst>
         <a:sp3d/>
       </a:spPr>
-      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="45718" tIns="45718" rIns="45718" bIns="45718" numCol="1" spcCol="38100" rtlCol="0" anchor="ctr">
+      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="45718" tIns="45718" rIns="45718" bIns="45718" numCol="1" spcCol="38100" rtlCol="0" anchor="ctr" upright="0">
         <a:spAutoFit/>
       </a:bodyPr>
       <a:lstStyle>
@@ -625,7 +598,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1100" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -655,7 +628,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -681,7 +654,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -707,7 +680,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -733,7 +706,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -759,7 +732,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -785,7 +758,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -811,7 +784,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -837,7 +810,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -863,7 +836,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -876,15 +849,9 @@
         </a:lvl9pPr>
       </a:lstStyle>
       <a:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
+        <a:lnRef idx="0"/>
+        <a:fillRef idx="0"/>
+        <a:effectRef idx="0"/>
         <a:fontRef idx="none"/>
       </a:style>
     </a:spDef>
@@ -899,7 +866,7 @@
           <a:round/>
         </a:ln>
         <a:effectLst>
-          <a:outerShdw blurRad="38100" dist="23000" dir="5400000" rotWithShape="0">
+          <a:outerShdw sx="100000" sy="100000" kx="0" ky="0" algn="b" rotWithShape="0" blurRad="38100" dist="23000" dir="5400000">
             <a:srgbClr val="000000">
               <a:alpha val="35000"/>
             </a:srgbClr>
@@ -907,7 +874,7 @@
         </a:effectLst>
         <a:sp3d/>
       </a:spPr>
-      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="91439" tIns="45719" rIns="91439" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="t">
+      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="91439" tIns="45719" rIns="91439" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="t" upright="0">
         <a:noAutofit/>
       </a:bodyPr>
       <a:lstStyle>
@@ -926,7 +893,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -952,7 +919,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -978,7 +945,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1004,7 +971,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1030,7 +997,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1056,7 +1023,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1082,7 +1049,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1108,7 +1075,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1134,7 +1101,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1160,7 +1127,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1173,15 +1140,9 @@
         </a:lvl9pPr>
       </a:lstStyle>
       <a:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
+        <a:lnRef idx="0"/>
+        <a:fillRef idx="0"/>
+        <a:effectRef idx="0"/>
         <a:fontRef idx="none"/>
       </a:style>
     </a:lnDef>
@@ -1195,7 +1156,7 @@
         <a:effectLst/>
         <a:sp3d/>
       </a:spPr>
-      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="45718" tIns="45718" rIns="45718" bIns="45718" numCol="1" spcCol="38100" rtlCol="0" anchor="t">
+      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="45718" tIns="45718" rIns="45718" bIns="45718" numCol="1" spcCol="38100" rtlCol="0" anchor="t" upright="0">
         <a:spAutoFit/>
       </a:bodyPr>
       <a:lstStyle>
@@ -1214,7 +1175,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1100" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1244,7 +1205,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1270,7 +1231,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1296,7 +1257,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1322,7 +1283,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1348,7 +1309,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1374,7 +1335,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1400,7 +1361,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1426,7 +1387,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1452,7 +1413,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1465,305 +1426,303 @@
         </a:lvl9pPr>
       </a:lstStyle>
       <a:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
+        <a:lnRef idx="0"/>
+        <a:fillRef idx="0"/>
+        <a:effectRef idx="0"/>
         <a:fontRef idx="none"/>
       </a:style>
     </a:txDef>
   </a:objectDefaults>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H13"/>
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1:H14"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
-    </sheetView>
+    <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.35" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="6" defaultRowHeight="13.35" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" width="21.375" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.875" style="1" customWidth="1"/>
-    <col min="3" max="3" width="12.625" style="1" customWidth="1"/>
-    <col min="4" max="8" width="13.625" style="1" customWidth="1"/>
-    <col min="9" max="9" width="9" style="1" customWidth="1"/>
-    <col min="10" max="16384" width="9" style="1"/>
+    <col min="1" max="2" width="14.3516" style="1" customWidth="1"/>
+    <col min="3" max="3" width="8.5" style="1" customWidth="1"/>
+    <col min="4" max="8" width="9.17188" style="1" customWidth="1"/>
+    <col min="9" max="16384" width="6" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="16.149999999999999" customHeight="1">
-      <c r="A1" s="15" t="s">
+    <row r="1" ht="16.15" customHeight="1">
+      <c r="A1" t="s" s="2">
+        <v>0</v>
+      </c>
+      <c r="B1" s="3"/>
+      <c r="C1" s="3"/>
+      <c r="D1" s="3"/>
+      <c r="E1" s="3"/>
+      <c r="F1" s="3"/>
+      <c r="G1" s="3"/>
+      <c r="H1" s="3"/>
+    </row>
+    <row r="2" ht="16.15" customHeight="1">
+      <c r="A2" s="3"/>
+      <c r="B2" s="3"/>
+      <c r="C2" s="4"/>
+      <c r="D2" s="5"/>
+      <c r="E2" s="5"/>
+      <c r="F2" s="5"/>
+      <c r="G2" s="5"/>
+      <c r="H2" s="5"/>
+    </row>
+    <row r="3" ht="16.15" customHeight="1">
+      <c r="A3" s="3"/>
+      <c r="B3" t="s" s="6">
+        <v>1</v>
+      </c>
+      <c r="C3" t="s" s="7">
+        <v>2</v>
+      </c>
+      <c r="D3" t="s" s="8">
+        <v>3</v>
+      </c>
+      <c r="E3" t="s" s="9">
+        <v>4</v>
+      </c>
+      <c r="F3" t="s" s="9">
+        <v>5</v>
+      </c>
+      <c r="G3" t="s" s="9">
+        <v>6</v>
+      </c>
+      <c r="H3" t="s" s="9">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" ht="16.15" customHeight="1">
+      <c r="A4" s="3"/>
+      <c r="B4" t="s" s="10">
         <v>8</v>
       </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
-      <c r="F1" s="2"/>
-      <c r="G1" s="2"/>
-      <c r="H1" s="2"/>
+      <c r="C4" t="s" s="7">
+        <v>9</v>
+      </c>
+      <c r="D4" t="s" s="8">
+        <v>10</v>
+      </c>
+      <c r="E4" t="s" s="9">
+        <v>11</v>
+      </c>
+      <c r="F4" t="s" s="9">
+        <v>10</v>
+      </c>
+      <c r="G4" t="s" s="9">
+        <v>10</v>
+      </c>
+      <c r="H4" t="s" s="9">
+        <v>10</v>
+      </c>
     </row>
-    <row r="2" spans="1:8" ht="16.149999999999999" customHeight="1">
-      <c r="A2" s="2"/>
-      <c r="B2" s="2"/>
-      <c r="C2" s="3"/>
-      <c r="D2" s="4"/>
-      <c r="E2" s="4"/>
-      <c r="F2" s="4"/>
-      <c r="G2" s="4"/>
-      <c r="H2" s="4"/>
+    <row r="5" ht="16.15" customHeight="1">
+      <c r="A5" s="3"/>
+      <c r="B5" t="s" s="10">
+        <v>12</v>
+      </c>
+      <c r="C5" s="7"/>
+      <c r="D5" s="8"/>
+      <c r="E5" s="9"/>
+      <c r="F5" s="9"/>
+      <c r="G5" s="9"/>
+      <c r="H5" s="9"/>
     </row>
-    <row r="3" spans="1:8" ht="16.149999999999999" customHeight="1">
-      <c r="A3" s="2"/>
-      <c r="B3" s="16" t="s">
+    <row r="6" ht="16.15" customHeight="1">
+      <c r="A6" s="3"/>
+      <c r="B6" t="s" s="10">
+        <v>13</v>
+      </c>
+      <c r="C6" t="s" s="7">
+        <v>14</v>
+      </c>
+      <c r="D6" t="s" s="8">
+        <v>14</v>
+      </c>
+      <c r="E6" t="s" s="9">
+        <v>14</v>
+      </c>
+      <c r="F6" t="s" s="9">
+        <v>14</v>
+      </c>
+      <c r="G6" t="s" s="9">
+        <v>14</v>
+      </c>
+      <c r="H6" t="s" s="9">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="7" ht="16.15" customHeight="1">
+      <c r="A7" s="3"/>
+      <c r="B7" t="s" s="11">
+        <v>15</v>
+      </c>
+      <c r="C7" s="7"/>
+      <c r="D7" t="s" s="8">
+        <v>16</v>
+      </c>
+      <c r="E7" t="s" s="9">
+        <v>16</v>
+      </c>
+      <c r="F7" t="s" s="9">
+        <v>16</v>
+      </c>
+      <c r="G7" t="s" s="9">
+        <v>16</v>
+      </c>
+      <c r="H7" t="s" s="9">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="8" ht="14.65" customHeight="1">
+      <c r="A8" s="3"/>
+      <c r="B8" s="3"/>
+      <c r="C8" s="12">
+        <v>1</v>
+      </c>
+      <c r="D8" s="13">
+        <v>5</v>
+      </c>
+      <c r="E8" s="13">
+        <v>5</v>
+      </c>
+      <c r="F8" s="13">
+        <v>5</v>
+      </c>
+      <c r="G8" s="13">
+        <v>5</v>
+      </c>
+      <c r="H8" s="13">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9" ht="14.65" customHeight="1">
+      <c r="A9" s="3"/>
+      <c r="B9" s="3"/>
+      <c r="C9" s="14">
+        <v>2</v>
+      </c>
+      <c r="D9" s="15">
+        <v>6</v>
+      </c>
+      <c r="E9" s="15">
+        <v>6</v>
+      </c>
+      <c r="F9" s="15">
+        <v>6</v>
+      </c>
+      <c r="G9" s="15">
+        <v>6</v>
+      </c>
+      <c r="H9" s="15">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10" ht="14.65" customHeight="1">
+      <c r="A10" s="3"/>
+      <c r="B10" s="3"/>
+      <c r="C10" s="14">
+        <v>3</v>
+      </c>
+      <c r="D10" s="15">
+        <v>7</v>
+      </c>
+      <c r="E10" s="15">
+        <v>7</v>
+      </c>
+      <c r="F10" s="15">
+        <v>7</v>
+      </c>
+      <c r="G10" s="15">
+        <v>7</v>
+      </c>
+      <c r="H10" s="15">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="11" ht="14.65" customHeight="1">
+      <c r="A11" s="3"/>
+      <c r="B11" s="3"/>
+      <c r="C11" s="14">
+        <v>4</v>
+      </c>
+      <c r="D11" s="15">
+        <v>8</v>
+      </c>
+      <c r="E11" s="15">
+        <v>8</v>
+      </c>
+      <c r="F11" s="15">
+        <v>8</v>
+      </c>
+      <c r="G11" s="15">
+        <v>8</v>
+      </c>
+      <c r="H11" s="15">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="12" ht="14.65" customHeight="1">
+      <c r="A12" s="3"/>
+      <c r="B12" s="3"/>
+      <c r="C12" s="14">
+        <v>5</v>
+      </c>
+      <c r="D12" s="15">
+        <v>9</v>
+      </c>
+      <c r="E12" s="15">
+        <v>9</v>
+      </c>
+      <c r="F12" s="15">
+        <v>9</v>
+      </c>
+      <c r="G12" s="15">
+        <v>9</v>
+      </c>
+      <c r="H12" s="15">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="13" ht="14.65" customHeight="1">
+      <c r="A13" s="3"/>
+      <c r="B13" s="3"/>
+      <c r="C13" s="14">
+        <v>6</v>
+      </c>
+      <c r="D13" s="15">
         <v>10</v>
       </c>
-      <c r="C3" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="D3" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="E3" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="F3" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="G3" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="H3" s="8" t="s">
-        <v>6</v>
+      <c r="E13" s="15">
+        <v>10</v>
+      </c>
+      <c r="F13" s="15">
+        <v>10</v>
+      </c>
+      <c r="G13" s="15">
+        <v>10</v>
+      </c>
+      <c r="H13" s="15">
+        <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="16.149999999999999" customHeight="1">
-      <c r="A4" s="2"/>
-      <c r="B4" s="16" t="s">
-        <v>11</v>
-      </c>
-      <c r="C4" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="D4" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="E4" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="F4" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="G4" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="H4" s="8" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" ht="16.149999999999999" customHeight="1">
-      <c r="A5" s="2"/>
-      <c r="B5" s="16" t="s">
-        <v>12</v>
-      </c>
-      <c r="C5" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="D5" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="E5" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="F5" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="G5" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="H5" s="8" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" ht="16.149999999999999" customHeight="1">
-      <c r="A6" s="2"/>
-      <c r="B6" s="16" t="s">
-        <v>13</v>
-      </c>
-      <c r="C6" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="D6" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="E6" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="F6" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="G6" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="H6" s="8" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" ht="14.65" customHeight="1">
-      <c r="A7" s="2"/>
-      <c r="B7" s="2"/>
-      <c r="C7" s="9">
-        <v>1</v>
-      </c>
-      <c r="D7" s="10">
-        <v>5</v>
-      </c>
-      <c r="E7" s="10">
-        <v>5</v>
-      </c>
-      <c r="F7" s="10">
-        <v>5</v>
-      </c>
-      <c r="G7" s="10">
-        <v>5</v>
-      </c>
-      <c r="H7" s="10">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" ht="14.65" customHeight="1">
-      <c r="A8" s="2"/>
-      <c r="B8" s="2"/>
-      <c r="C8" s="11">
-        <v>2</v>
-      </c>
-      <c r="D8" s="12">
-        <v>6</v>
-      </c>
-      <c r="E8" s="12">
-        <v>6</v>
-      </c>
-      <c r="F8" s="12">
-        <v>6</v>
-      </c>
-      <c r="G8" s="12">
-        <v>6</v>
-      </c>
-      <c r="H8" s="12">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" ht="14.65" customHeight="1">
-      <c r="A9" s="2"/>
-      <c r="B9" s="2"/>
-      <c r="C9" s="11">
-        <v>3</v>
-      </c>
-      <c r="D9" s="12">
-        <v>7</v>
-      </c>
-      <c r="E9" s="12">
-        <v>7</v>
-      </c>
-      <c r="F9" s="12">
-        <v>7</v>
-      </c>
-      <c r="G9" s="12">
-        <v>7</v>
-      </c>
-      <c r="H9" s="12">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" ht="14.65" customHeight="1">
-      <c r="A10" s="2"/>
-      <c r="B10" s="2"/>
-      <c r="C10" s="11">
-        <v>4</v>
-      </c>
-      <c r="D10" s="12">
-        <v>8</v>
-      </c>
-      <c r="E10" s="12">
-        <v>8</v>
-      </c>
-      <c r="F10" s="12">
-        <v>8</v>
-      </c>
-      <c r="G10" s="12">
-        <v>8</v>
-      </c>
-      <c r="H10" s="12">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" ht="14.65" customHeight="1">
-      <c r="A11" s="2"/>
-      <c r="B11" s="2"/>
-      <c r="C11" s="11">
-        <v>5</v>
-      </c>
-      <c r="D11" s="12">
-        <v>9</v>
-      </c>
-      <c r="E11" s="12">
-        <v>9</v>
-      </c>
-      <c r="F11" s="12">
-        <v>9</v>
-      </c>
-      <c r="G11" s="12">
-        <v>9</v>
-      </c>
-      <c r="H11" s="12">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" ht="14.65" customHeight="1">
-      <c r="A12" s="2"/>
-      <c r="B12" s="2"/>
-      <c r="C12" s="11">
-        <v>6</v>
-      </c>
-      <c r="D12" s="12">
-        <v>10</v>
-      </c>
-      <c r="E12" s="12">
-        <v>10</v>
-      </c>
-      <c r="F12" s="12">
-        <v>10</v>
-      </c>
-      <c r="G12" s="12">
-        <v>10</v>
-      </c>
-      <c r="H12" s="12">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" ht="16.149999999999999" customHeight="1">
-      <c r="A13" s="5"/>
-      <c r="B13" s="13"/>
-      <c r="C13" s="13"/>
-      <c r="D13" s="14"/>
-      <c r="E13" s="2"/>
-      <c r="F13" s="2"/>
-      <c r="G13" s="2"/>
-      <c r="H13" s="2"/>
+    <row r="14" ht="16.15" customHeight="1">
+      <c r="A14" s="16"/>
+      <c r="B14" s="17"/>
+      <c r="C14" s="17"/>
+      <c r="D14" s="18"/>
+      <c r="E14" s="3"/>
+      <c r="F14" s="3"/>
+      <c r="G14" s="3"/>
+      <c r="H14" s="3"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
+  <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="100" useFirstPageNumber="0" orientation="portrait" pageOrder="downThenOver"/>
   <headerFooter>
     <oddFooter>&amp;C&amp;"Helvetica Neue,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
   </headerFooter>

--- a/config/excel/runeSuit.xlsx
+++ b/config/excel/runeSuit.xlsx
@@ -55,7 +55,7 @@
     <t>服务器导出字段类型</t>
   </si>
   <si>
-    <t>int</t>
+    <t>int32</t>
   </si>
   <si>
     <t>导出字段默认值</t>

--- a/config/excel/runeSuit.xlsx
+++ b/config/excel/runeSuit.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="15">
   <si>
     <t>行列头两行不会被读取</t>
   </si>
@@ -56,12 +56,6 @@
   </si>
   <si>
     <t>int32</t>
-  </si>
-  <si>
-    <t>导出字段默认值</t>
-  </si>
-  <si>
-    <t>-1</t>
   </si>
 </sst>
 </file>
@@ -1438,7 +1432,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:H14"/>
+  <dimension ref="A1:H13"/>
   <sheetViews>
     <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
   </sheetViews>
@@ -1534,7 +1528,7 @@
     </row>
     <row r="6" ht="16.15" customHeight="1">
       <c r="A6" s="3"/>
-      <c r="B6" t="s" s="10">
+      <c r="B6" t="s" s="11">
         <v>13</v>
       </c>
       <c r="C6" t="s" s="7">
@@ -1556,169 +1550,147 @@
         <v>14</v>
       </c>
     </row>
-    <row r="7" ht="16.15" customHeight="1">
+    <row r="7" ht="14.65" customHeight="1">
       <c r="A7" s="3"/>
-      <c r="B7" t="s" s="11">
-        <v>15</v>
-      </c>
-      <c r="C7" s="7"/>
-      <c r="D7" t="s" s="8">
-        <v>16</v>
-      </c>
-      <c r="E7" t="s" s="9">
-        <v>16</v>
-      </c>
-      <c r="F7" t="s" s="9">
-        <v>16</v>
-      </c>
-      <c r="G7" t="s" s="9">
-        <v>16</v>
-      </c>
-      <c r="H7" t="s" s="9">
-        <v>16</v>
+      <c r="B7" s="3"/>
+      <c r="C7" s="12">
+        <v>1</v>
+      </c>
+      <c r="D7" s="13">
+        <v>5</v>
+      </c>
+      <c r="E7" s="13">
+        <v>5</v>
+      </c>
+      <c r="F7" s="13">
+        <v>5</v>
+      </c>
+      <c r="G7" s="13">
+        <v>5</v>
+      </c>
+      <c r="H7" s="13">
+        <v>5</v>
       </c>
     </row>
     <row r="8" ht="14.65" customHeight="1">
       <c r="A8" s="3"/>
       <c r="B8" s="3"/>
-      <c r="C8" s="12">
-        <v>1</v>
-      </c>
-      <c r="D8" s="13">
-        <v>5</v>
-      </c>
-      <c r="E8" s="13">
-        <v>5</v>
-      </c>
-      <c r="F8" s="13">
-        <v>5</v>
-      </c>
-      <c r="G8" s="13">
-        <v>5</v>
-      </c>
-      <c r="H8" s="13">
-        <v>5</v>
+      <c r="C8" s="14">
+        <v>2</v>
+      </c>
+      <c r="D8" s="15">
+        <v>6</v>
+      </c>
+      <c r="E8" s="15">
+        <v>6</v>
+      </c>
+      <c r="F8" s="15">
+        <v>6</v>
+      </c>
+      <c r="G8" s="15">
+        <v>6</v>
+      </c>
+      <c r="H8" s="15">
+        <v>6</v>
       </c>
     </row>
     <row r="9" ht="14.65" customHeight="1">
       <c r="A9" s="3"/>
       <c r="B9" s="3"/>
       <c r="C9" s="14">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D9" s="15">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E9" s="15">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="F9" s="15">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="G9" s="15">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="H9" s="15">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="10" ht="14.65" customHeight="1">
       <c r="A10" s="3"/>
       <c r="B10" s="3"/>
       <c r="C10" s="14">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D10" s="15">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E10" s="15">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F10" s="15">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="G10" s="15">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="H10" s="15">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="11" ht="14.65" customHeight="1">
       <c r="A11" s="3"/>
       <c r="B11" s="3"/>
       <c r="C11" s="14">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D11" s="15">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E11" s="15">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F11" s="15">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G11" s="15">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="H11" s="15">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="12" ht="14.65" customHeight="1">
       <c r="A12" s="3"/>
       <c r="B12" s="3"/>
       <c r="C12" s="14">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D12" s="15">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E12" s="15">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F12" s="15">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G12" s="15">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="H12" s="15">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
-    <row r="13" ht="14.65" customHeight="1">
-      <c r="A13" s="3"/>
-      <c r="B13" s="3"/>
-      <c r="C13" s="14">
-        <v>6</v>
-      </c>
-      <c r="D13" s="15">
-        <v>10</v>
-      </c>
-      <c r="E13" s="15">
-        <v>10</v>
-      </c>
-      <c r="F13" s="15">
-        <v>10</v>
-      </c>
-      <c r="G13" s="15">
-        <v>10</v>
-      </c>
-      <c r="H13" s="15">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="14" ht="16.15" customHeight="1">
-      <c r="A14" s="16"/>
-      <c r="B14" s="17"/>
-      <c r="C14" s="17"/>
-      <c r="D14" s="18"/>
-      <c r="E14" s="3"/>
-      <c r="F14" s="3"/>
-      <c r="G14" s="3"/>
-      <c r="H14" s="3"/>
+    <row r="13" ht="16.15" customHeight="1">
+      <c r="A13" s="16"/>
+      <c r="B13" s="17"/>
+      <c r="C13" s="17"/>
+      <c r="D13" s="18"/>
+      <c r="E13" s="3"/>
+      <c r="F13" s="3"/>
+      <c r="G13" s="3"/>
+      <c r="H13" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
